--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_NOx.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>320.9027729549717</v>
+        <v>71.31172732332702</v>
       </c>
       <c r="C2">
-        <v>0.2075167627013098</v>
+        <v>0.04611483615584663</v>
       </c>
       <c r="D2">
-        <v>143.1180794916883</v>
+        <v>31.80401766481962</v>
       </c>
       <c r="E2">
-        <v>29.5403333611676</v>
+        <v>6.564518524703913</v>
       </c>
       <c r="F2">
-        <v>161.262235848041</v>
+        <v>35.83605241067576</v>
       </c>
       <c r="G2">
-        <v>199.0394593839855</v>
+        <v>44.23099097421901</v>
       </c>
       <c r="H2">
-        <v>12.3362891314319</v>
+        <v>2.741397584762646</v>
       </c>
       <c r="I2">
-        <v>866.4066869339872</v>
+        <v>192.5348193186638</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>329.8285454477588</v>
+        <v>73.2952323217242</v>
       </c>
       <c r="C3">
-        <v>0.2616515703625211</v>
+        <v>0.05814479341389357</v>
       </c>
       <c r="D3">
-        <v>109.0423462793815</v>
+        <v>24.23163250652924</v>
       </c>
       <c r="E3">
-        <v>22.45065335448738</v>
+        <v>4.989034078774973</v>
       </c>
       <c r="F3">
-        <v>155.3334771771572</v>
+        <v>34.5185504838127</v>
       </c>
       <c r="G3">
-        <v>167.094854791494</v>
+        <v>37.13218995366535</v>
       </c>
       <c r="H3">
-        <v>7.710180707144938</v>
+        <v>1.713373490476653</v>
       </c>
       <c r="I3">
-        <v>791.7217093277864</v>
+        <v>175.938157628397</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>337.0541707990628</v>
+        <v>74.9009268442362</v>
       </c>
       <c r="C4">
-        <v>0.2887189741931266</v>
+        <v>0.06415977204291705</v>
       </c>
       <c r="D4">
-        <v>78.37418638830547</v>
+        <v>17.41648586406788</v>
       </c>
       <c r="E4">
-        <v>30.7219466956143</v>
+        <v>6.827099265692071</v>
       </c>
       <c r="F4">
-        <v>147.0332150379197</v>
+        <v>32.6740477862044</v>
       </c>
       <c r="G4">
-        <v>83.54742739574702</v>
+        <v>18.56609497683267</v>
       </c>
       <c r="H4">
-        <v>7.710180707144938</v>
+        <v>1.713373490476653</v>
       </c>
       <c r="I4">
-        <v>684.7298459979874</v>
+        <v>152.1621879995528</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>365.9566722042789</v>
+        <v>81.32370493428425</v>
       </c>
       <c r="C5">
-        <v>0.2616515703625211</v>
+        <v>0.05814479341389357</v>
       </c>
       <c r="D5">
-        <v>122.6726395643042</v>
+        <v>27.26058656984538</v>
       </c>
       <c r="E5">
-        <v>36.63001336784782</v>
+        <v>8.140002970632853</v>
       </c>
       <c r="F5">
-        <v>109.089159544263</v>
+        <v>24.24203545428067</v>
       </c>
       <c r="G5">
-        <v>54.06010007960099</v>
+        <v>12.01335557324467</v>
       </c>
       <c r="H5">
-        <v>12.3362891314319</v>
+        <v>2.741397584762646</v>
       </c>
       <c r="I5">
-        <v>701.0065254620894</v>
+        <v>155.7792278804644</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>439.0629992880608</v>
+        <v>97.56955539734678</v>
       </c>
       <c r="C6">
-        <v>0.2977414421366619</v>
+        <v>0.0661647649192582</v>
       </c>
       <c r="D6">
-        <v>112.4499196006121</v>
+        <v>24.98887102235827</v>
       </c>
       <c r="E6">
-        <v>25.9954933578275</v>
+        <v>5.776776301739442</v>
       </c>
       <c r="F6">
-        <v>86.55987659490434</v>
+        <v>19.23552813220097</v>
       </c>
       <c r="G6">
-        <v>31.94460459249149</v>
+        <v>7.098801020553666</v>
       </c>
       <c r="H6">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I6">
-        <v>699.394707158891</v>
+        <v>155.421046035309</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>380.8329596922579</v>
+        <v>84.62954659827959</v>
       </c>
       <c r="C7">
-        <v>0.06315727560474647</v>
+        <v>0.0140349501343881</v>
       </c>
       <c r="D7">
-        <v>109.0423462793815</v>
+        <v>24.23163250652924</v>
       </c>
       <c r="E7">
-        <v>41.35646670563466</v>
+        <v>9.190325934585477</v>
       </c>
       <c r="F7">
-        <v>49.80157283542442</v>
+        <v>11.06701618564988</v>
       </c>
       <c r="G7">
-        <v>24.57277276345501</v>
+        <v>5.460616169656669</v>
       </c>
       <c r="H7">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I7">
-        <v>608.7533478346162</v>
+        <v>135.2785217410259</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>303.9013015401386</v>
+        <v>67.53362256447528</v>
       </c>
       <c r="C8">
-        <v>0.2345841665319154</v>
+        <v>0.0521298147848701</v>
       </c>
       <c r="D8">
-        <v>57.92874646092142</v>
+        <v>12.87305476909366</v>
       </c>
       <c r="E8">
-        <v>34.26678669895443</v>
+        <v>7.614841488656539</v>
       </c>
       <c r="F8">
-        <v>56.91608324048505</v>
+        <v>12.64801849788556</v>
       </c>
       <c r="G8">
-        <v>29.487327316146</v>
+        <v>6.552739403587999</v>
       </c>
       <c r="H8">
-        <v>6.168144565715952</v>
+        <v>1.370698792381323</v>
       </c>
       <c r="I8">
-        <v>488.9029739888934</v>
+        <v>108.6451053308652</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>266.9231012128772</v>
+        <v>59.3162447139727</v>
       </c>
       <c r="C9">
-        <v>0.3608987177414082</v>
+        <v>0.0801997150536463</v>
       </c>
       <c r="D9">
-        <v>68.1514664246135</v>
+        <v>15.14477031658077</v>
       </c>
       <c r="E9">
-        <v>51.99098671565499</v>
+        <v>11.55355260347888</v>
       </c>
       <c r="F9">
-        <v>34.38680029112639</v>
+        <v>7.641511175805865</v>
       </c>
       <c r="G9">
-        <v>41.77371369787351</v>
+        <v>9.283047488416337</v>
       </c>
       <c r="H9">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I9">
-        <v>466.6710393427449</v>
+        <v>103.7046754094988</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>235.0453423100653</v>
+        <v>52.23229829112565</v>
       </c>
       <c r="C10">
-        <v>0.1533819550400985</v>
+        <v>0.03408487889779967</v>
       </c>
       <c r="D10">
-        <v>51.11359981846009</v>
+        <v>11.35857773743557</v>
       </c>
       <c r="E10">
-        <v>31.90356003006102</v>
+        <v>7.089680006680227</v>
       </c>
       <c r="F10">
-        <v>33.20104855694961</v>
+        <v>7.378010790433244</v>
       </c>
       <c r="G10">
-        <v>22.11549548710951</v>
+        <v>4.914554552691002</v>
       </c>
       <c r="H10">
-        <v>9.252216848573928</v>
+        <v>2.056048188571983</v>
       </c>
       <c r="I10">
-        <v>382.7846450062596</v>
+        <v>85.06325444583547</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>132.6114770356969</v>
+        <v>29.46921711904376</v>
       </c>
       <c r="C11">
-        <v>0.07217974354828166</v>
+        <v>0.01603994301072926</v>
       </c>
       <c r="D11">
-        <v>17.03786660615338</v>
+        <v>3.786192579145193</v>
       </c>
       <c r="E11">
-        <v>21.26904002004067</v>
+        <v>4.726453337786818</v>
       </c>
       <c r="F11">
-        <v>29.64379335441929</v>
+        <v>6.587509634315397</v>
       </c>
       <c r="G11">
-        <v>12.2863863817275</v>
+        <v>2.730308084828335</v>
       </c>
       <c r="H11">
-        <v>7.710180707144938</v>
+        <v>1.713373490476653</v>
       </c>
       <c r="I11">
-        <v>220.6309238487309</v>
+        <v>49.02909418860689</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>90.95787206935618</v>
+        <v>20.21286045985693</v>
       </c>
       <c r="C12">
-        <v>0.07217974354828166</v>
+        <v>0.01603994301072926</v>
       </c>
       <c r="D12">
-        <v>13.63029328492269</v>
+        <v>3.028954063316155</v>
       </c>
       <c r="E12">
-        <v>8.271293341126931</v>
+        <v>1.838065186917096</v>
       </c>
       <c r="F12">
-        <v>14.22902081012126</v>
+        <v>3.162004624471391</v>
       </c>
       <c r="G12">
-        <v>9.829109105382004</v>
+        <v>2.184246467862666</v>
       </c>
       <c r="H12">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I12">
-        <v>140.0738406373153</v>
+        <v>31.12752014162563</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>56.10485566894872</v>
+        <v>12.46774570421082</v>
       </c>
       <c r="C13">
-        <v>0.06315727560474647</v>
+        <v>0.0140349501343881</v>
       </c>
       <c r="D13">
-        <v>3.407573321230672</v>
+        <v>0.7572385158290387</v>
       </c>
       <c r="F13">
-        <v>13.04326907594449</v>
+        <v>2.898504239098776</v>
       </c>
       <c r="G13">
-        <v>7.3718318290365</v>
+        <v>1.638184850897</v>
       </c>
       <c r="H13">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I13">
-        <v>81.53272331219411</v>
+        <v>18.11838295826535</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>45.47893603467809</v>
+        <v>10.10643022992847</v>
       </c>
       <c r="C14">
-        <v>0.08120221149181686</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D14">
-        <v>17.03786660615338</v>
+        <v>3.786192579145193</v>
       </c>
       <c r="F14">
-        <v>16.6005242784748</v>
+        <v>3.689005395216622</v>
       </c>
       <c r="G14">
-        <v>7.3718318290365</v>
+        <v>1.638184850897</v>
       </c>
       <c r="H14">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I14">
-        <v>89.65443324269256</v>
+        <v>19.92320738726501</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,22 +809,22 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>34.00294282966587</v>
+        <v>7.556209517703527</v>
       </c>
       <c r="C15">
-        <v>0.04511233971767603</v>
+        <v>0.01002496438170579</v>
       </c>
       <c r="D15">
-        <v>6.815146642461345</v>
+        <v>1.514477031658077</v>
       </c>
       <c r="F15">
-        <v>10.67176560759095</v>
+        <v>2.371503468353544</v>
       </c>
       <c r="G15">
-        <v>14.743663658073</v>
+        <v>3.276369701794</v>
       </c>
       <c r="I15">
-        <v>66.27863107750883</v>
+        <v>14.72858468389085</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>29.32753819058681</v>
+        <v>6.517230709019291</v>
       </c>
       <c r="C16">
-        <v>0.04511233971767603</v>
+        <v>0.01002496438170579</v>
       </c>
       <c r="D16">
-        <v>6.815146642461345</v>
+        <v>1.514477031658077</v>
       </c>
       <c r="E16">
-        <v>5.908066672233522</v>
+        <v>1.312903704940783</v>
       </c>
       <c r="F16">
-        <v>9.486013873414171</v>
+        <v>2.108003082980928</v>
       </c>
       <c r="G16">
-        <v>12.2863863817275</v>
+        <v>2.730308084828335</v>
       </c>
       <c r="I16">
-        <v>63.86826410014103</v>
+        <v>14.19294757780912</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>56.10485566894872</v>
+        <v>12.46774570421082</v>
       </c>
       <c r="C17">
-        <v>0.05413480766121126</v>
+        <v>0.01202995725804695</v>
       </c>
       <c r="D17">
-        <v>27.26058656984538</v>
+        <v>6.057908126632309</v>
       </c>
       <c r="E17">
-        <v>1.181613334446704</v>
+        <v>0.2625807409881565</v>
       </c>
       <c r="F17">
-        <v>18.97202774682834</v>
+        <v>4.216006165961856</v>
       </c>
       <c r="G17">
-        <v>12.2863863817275</v>
+        <v>2.730308084828335</v>
       </c>
       <c r="I17">
-        <v>115.8596045094579</v>
+        <v>25.74657877987952</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,28 +884,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>187.0161855631623</v>
+        <v>41.55915234736938</v>
       </c>
       <c r="C18">
-        <v>0.08120221149181686</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D18">
-        <v>78.37418638830547</v>
+        <v>17.41648586406788</v>
       </c>
       <c r="E18">
-        <v>9.452906675573635</v>
+        <v>2.100645927905252</v>
       </c>
       <c r="F18">
-        <v>58.10183497466182</v>
+        <v>12.91151888325819</v>
       </c>
       <c r="G18">
-        <v>46.6882682505645</v>
+        <v>10.37517072234767</v>
       </c>
       <c r="H18">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I18">
-        <v>381.2566202051885</v>
+        <v>84.72369337893076</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -913,28 +913,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>296.6756761888346</v>
+        <v>65.92792804196328</v>
       </c>
       <c r="C19">
-        <v>0.06315727560474647</v>
+        <v>0.0140349501343881</v>
       </c>
       <c r="D19">
-        <v>88.5969063519975</v>
+        <v>19.68820141155501</v>
       </c>
       <c r="E19">
-        <v>50.80937338120828</v>
+        <v>11.29097186249073</v>
       </c>
       <c r="F19">
-        <v>98.41739393667207</v>
+        <v>21.87053198592713</v>
       </c>
       <c r="G19">
-        <v>71.26104101401954</v>
+        <v>15.83578689200434</v>
       </c>
       <c r="H19">
-        <v>4.626108424286964</v>
+        <v>1.028024094285992</v>
       </c>
       <c r="I19">
-        <v>610.4496565726237</v>
+        <v>135.6554792383609</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>360.4311939944584</v>
+        <v>80.09582088765741</v>
       </c>
       <c r="C20">
-        <v>0.1533819550400985</v>
+        <v>0.03408487889779967</v>
       </c>
       <c r="D20">
-        <v>71.55903974584415</v>
+        <v>15.90200883240981</v>
       </c>
       <c r="E20">
-        <v>44.90130670897475</v>
+        <v>9.978068157549945</v>
       </c>
       <c r="F20">
-        <v>77.0738627214902</v>
+        <v>17.12752504922004</v>
       </c>
       <c r="G20">
-        <v>54.06010007960099</v>
+        <v>12.01335557324467</v>
       </c>
       <c r="I20">
-        <v>608.1788852054085</v>
+        <v>135.1508633789797</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>388.4836218289328</v>
+        <v>86.32969373976276</v>
       </c>
       <c r="C21">
-        <v>0.2075167627013098</v>
+        <v>0.04611483615584663</v>
       </c>
       <c r="D21">
-        <v>115.8574929218428</v>
+        <v>25.74610953818732</v>
       </c>
       <c r="E21">
-        <v>36.63001336784782</v>
+        <v>8.140002970632853</v>
       </c>
       <c r="F21">
-        <v>92.48863526578822</v>
+        <v>20.55303005906406</v>
       </c>
       <c r="G21">
-        <v>66.34648646132852</v>
+        <v>14.743663658073</v>
       </c>
       <c r="H21">
-        <v>13.87832527286089</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I21">
-        <v>713.8920918813023</v>
+        <v>158.6426870847338</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>342.1546122235128</v>
+        <v>76.03435827189176</v>
       </c>
       <c r="C22">
-        <v>0.2887189741931266</v>
+        <v>0.06415977204291705</v>
       </c>
       <c r="D22">
-        <v>149.9332261341496</v>
+        <v>33.31849469647771</v>
       </c>
       <c r="E22">
-        <v>30.7219466956143</v>
+        <v>6.827099265692071</v>
       </c>
       <c r="F22">
-        <v>151.7762219746267</v>
+        <v>33.72804932769485</v>
       </c>
       <c r="G22">
-        <v>149.8939138570756</v>
+        <v>33.30975863490568</v>
       </c>
       <c r="H22">
-        <v>6.168144565715952</v>
+        <v>1.370698792381323</v>
       </c>
       <c r="I22">
-        <v>830.9367844248882</v>
+        <v>184.6526187610863</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>285.6247197691933</v>
+        <v>63.47215994870963</v>
       </c>
       <c r="C23">
-        <v>0.2616515703625211</v>
+        <v>0.05814479341389357</v>
       </c>
       <c r="D23">
-        <v>71.55903974584415</v>
+        <v>15.90200883240981</v>
       </c>
       <c r="E23">
-        <v>27.1771066922742</v>
+        <v>6.039357042727601</v>
       </c>
       <c r="F23">
-        <v>160.0764841138643</v>
+        <v>35.57255202530315</v>
       </c>
       <c r="G23">
-        <v>191.667627554949</v>
+        <v>42.59280612332201</v>
       </c>
       <c r="H23">
-        <v>12.3362891314319</v>
+        <v>2.741397584762646</v>
       </c>
       <c r="I23">
-        <v>748.7029185779194</v>
+        <v>166.3784263506487</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>265.6479908567646</v>
+        <v>59.03288685705879</v>
       </c>
       <c r="C24">
-        <v>0.2616515703625211</v>
+        <v>0.05814479341389357</v>
       </c>
       <c r="D24">
-        <v>81.78175970953612</v>
+        <v>18.17372437989692</v>
       </c>
       <c r="E24">
-        <v>25.9954933578275</v>
+        <v>5.776776301739442</v>
       </c>
       <c r="F24">
-        <v>152.9619737088036</v>
+        <v>33.99154971306747</v>
       </c>
       <c r="G24">
-        <v>228.5267867001315</v>
+        <v>50.783730377807</v>
       </c>
       <c r="H24">
-        <v>7.710180707144938</v>
+        <v>1.713373490476653</v>
       </c>
       <c r="I24">
-        <v>762.8858366105708</v>
+        <v>169.5301859134601</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>285.1996829838225</v>
+        <v>63.3777073297383</v>
       </c>
       <c r="C25">
-        <v>0.3518762497978731</v>
+        <v>0.07819472217730514</v>
       </c>
       <c r="D25">
-        <v>98.81962631568955</v>
+        <v>21.95991695904211</v>
       </c>
       <c r="E25">
-        <v>27.1771066922742</v>
+        <v>6.039357042727601</v>
       </c>
       <c r="F25">
-        <v>125.6896838227378</v>
+        <v>27.9310408494973</v>
       </c>
       <c r="G25">
-        <v>235.898618529168</v>
+        <v>52.42191522870399</v>
       </c>
       <c r="H25">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I25">
-        <v>774.6786307349189</v>
+        <v>172.1508068299819</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>317.502478672005</v>
+        <v>70.55610637155668</v>
       </c>
       <c r="C26">
-        <v>0.4240559933461548</v>
+        <v>0.09423466518803439</v>
       </c>
       <c r="D26">
-        <v>129.4877862067657</v>
+        <v>28.77506360150346</v>
       </c>
       <c r="E26">
-        <v>24.81388002338078</v>
+        <v>5.514195560751286</v>
       </c>
       <c r="F26">
-        <v>147.0332150379197</v>
+        <v>32.6740477862044</v>
       </c>
       <c r="G26">
-        <v>218.6976775947495</v>
+        <v>48.59948390994435</v>
       </c>
       <c r="H26">
-        <v>6.168144565715952</v>
+        <v>1.370698792381323</v>
       </c>
       <c r="I26">
-        <v>844.1272380938827</v>
+        <v>187.5838306875295</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>313.6771476036675</v>
+        <v>69.70603280081504</v>
       </c>
       <c r="C27">
-        <v>0.3879661215720139</v>
+        <v>0.08621469368266978</v>
       </c>
       <c r="D27">
-        <v>119.2650662430735</v>
+        <v>26.50334805401635</v>
       </c>
       <c r="E27">
-        <v>22.45065335448738</v>
+        <v>4.989034078774973</v>
       </c>
       <c r="F27">
-        <v>148.2189667720965</v>
+        <v>32.93754817157699</v>
       </c>
       <c r="G27">
-        <v>149.8939138570756</v>
+        <v>33.30975863490568</v>
       </c>
       <c r="H27">
-        <v>26.2146144042928</v>
+        <v>5.825469867620622</v>
       </c>
       <c r="I27">
-        <v>780.1083283562654</v>
+        <v>173.3574063013923</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>327.2783247355343</v>
+        <v>72.72851660789648</v>
       </c>
       <c r="C28">
-        <v>0.3789436536284786</v>
+        <v>0.08420970080632861</v>
       </c>
       <c r="D28">
-        <v>129.4877862067657</v>
+        <v>28.77506360150346</v>
       </c>
       <c r="E28">
-        <v>28.35872002672091</v>
+        <v>6.301937783715756</v>
       </c>
       <c r="F28">
-        <v>143.4759598353893</v>
+        <v>31.88354663008653</v>
       </c>
       <c r="G28">
-        <v>184.2957957259126</v>
+        <v>40.95462127242502</v>
       </c>
       <c r="H28">
-        <v>10.79425299000291</v>
+        <v>2.398722886667315</v>
       </c>
       <c r="I28">
-        <v>824.0697831739542</v>
+        <v>183.1266184831009</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>306.0264854669928</v>
+        <v>68.00588565933174</v>
       </c>
       <c r="C29">
-        <v>0.3248088459672674</v>
+        <v>0.07217974354828169</v>
       </c>
       <c r="D29">
-        <v>115.8574929218428</v>
+        <v>25.74610953818732</v>
       </c>
       <c r="E29">
-        <v>31.90356003006102</v>
+        <v>7.089680006680227</v>
       </c>
       <c r="F29">
-        <v>98.41739393667207</v>
+        <v>21.87053198592713</v>
       </c>
       <c r="G29">
-        <v>149.8939138570756</v>
+        <v>33.30975863490568</v>
       </c>
       <c r="H29">
-        <v>7.710180707144938</v>
+        <v>1.713373490476653</v>
       </c>
       <c r="I29">
-        <v>710.1338357657565</v>
+        <v>157.807519059057</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>348.1051272187044</v>
+        <v>77.35669493748986</v>
       </c>
       <c r="C30">
-        <v>0.1443594870965633</v>
+        <v>0.03207988602145852</v>
       </c>
       <c r="D30">
-        <v>132.8953595279962</v>
+        <v>29.5323021173325</v>
       </c>
       <c r="E30">
-        <v>22.45065335448738</v>
+        <v>4.989034078774973</v>
       </c>
       <c r="F30">
-        <v>94.86013873414174</v>
+        <v>21.08003082980927</v>
       </c>
       <c r="G30">
-        <v>142.5220820280391</v>
+        <v>31.67157378400868</v>
       </c>
       <c r="H30">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I30">
-        <v>744.0617926333233</v>
+        <v>165.3470650296274</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>339.1793547259171</v>
+        <v>75.37318993909273</v>
       </c>
       <c r="C31">
-        <v>0.01804493588707042</v>
+        <v>0.004009985752682316</v>
       </c>
       <c r="D31">
-        <v>57.92874646092142</v>
+        <v>12.87305476909366</v>
       </c>
       <c r="E31">
-        <v>42.53808004008135</v>
+        <v>9.452906675573637</v>
       </c>
       <c r="F31">
-        <v>49.80157283542442</v>
+        <v>11.06701618564988</v>
       </c>
       <c r="G31">
-        <v>110.5774774355475</v>
+        <v>24.57277276345501</v>
       </c>
       <c r="I31">
-        <v>600.0432764337789</v>
+        <v>133.3429503186176</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,25 +1284,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>301.7761176132844</v>
+        <v>67.06135946961878</v>
       </c>
       <c r="C32">
-        <v>0.08120221149181686</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D32">
-        <v>74.9666130670748</v>
+        <v>16.65924734823885</v>
       </c>
       <c r="E32">
-        <v>49.62776004676156</v>
+        <v>11.02839112150257</v>
       </c>
       <c r="F32">
-        <v>52.17307630377796</v>
+        <v>11.5940169563951</v>
       </c>
       <c r="G32">
-        <v>86.0047046720925</v>
+        <v>19.11215659379834</v>
       </c>
       <c r="I32">
-        <v>564.6294739144831</v>
+        <v>125.4732164254407</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1310,25 +1310,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>240.5708205198862</v>
+        <v>53.46018233775242</v>
       </c>
       <c r="C33">
-        <v>0.1443594870965633</v>
+        <v>0.03207988602145852</v>
       </c>
       <c r="D33">
-        <v>78.37418638830547</v>
+        <v>17.41648586406788</v>
       </c>
       <c r="E33">
-        <v>41.35646670563466</v>
+        <v>9.190325934585477</v>
       </c>
       <c r="F33">
-        <v>29.64379335441929</v>
+        <v>6.587509634315397</v>
       </c>
       <c r="G33">
-        <v>36.8591591451825</v>
+        <v>8.190924254484999</v>
       </c>
       <c r="I33">
-        <v>426.9487856005246</v>
+        <v>94.87750791122762</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,25 +1336,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>189.5664062753872</v>
+        <v>42.12586806119715</v>
       </c>
       <c r="C34">
-        <v>0.08120221149181686</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D34">
-        <v>47.70602649722943</v>
+        <v>10.60133922160654</v>
       </c>
       <c r="E34">
-        <v>34.26678669895443</v>
+        <v>7.614841488656539</v>
       </c>
       <c r="F34">
-        <v>15.41477254429804</v>
+        <v>3.425505009844007</v>
       </c>
       <c r="G34">
-        <v>34.40188186883702</v>
+        <v>7.644862637519332</v>
       </c>
       <c r="I34">
-        <v>321.4370760961979</v>
+        <v>71.43046135471064</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1362,25 +1362,25 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>124.5357781136512</v>
+        <v>27.67461735858919</v>
       </c>
       <c r="C35">
-        <v>0.06315727560474647</v>
+        <v>0.0140349501343881</v>
       </c>
       <c r="D35">
-        <v>23.85301324861472</v>
+        <v>5.300669610803271</v>
       </c>
       <c r="E35">
-        <v>23.63226668893409</v>
+        <v>5.25161481976313</v>
       </c>
       <c r="F35">
-        <v>24.90078641771221</v>
+        <v>5.533508092824938</v>
       </c>
       <c r="G35">
-        <v>51.60282280325551</v>
+        <v>11.46729395627901</v>
       </c>
       <c r="I35">
-        <v>248.5878245477726</v>
+        <v>55.24173878839392</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,28 +1388,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>89.25772492787294</v>
+        <v>19.83504998397175</v>
       </c>
       <c r="C36">
-        <v>0.03608987177414083</v>
+        <v>0.008019971505364631</v>
       </c>
       <c r="D36">
-        <v>20.44543992738403</v>
+        <v>4.543431094974229</v>
       </c>
       <c r="E36">
-        <v>9.452906675573635</v>
+        <v>2.100645927905252</v>
       </c>
       <c r="F36">
-        <v>17.78627601265157</v>
+        <v>3.95250578058924</v>
       </c>
       <c r="G36">
-        <v>27.0300500398005</v>
+        <v>6.006677786622334</v>
       </c>
       <c r="H36">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I36">
-        <v>165.5505235964858</v>
+        <v>36.7890052436635</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1417,22 +1417,22 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>53.97967174209457</v>
+        <v>11.99548260935435</v>
       </c>
       <c r="C37">
-        <v>0.02706740383060563</v>
+        <v>0.006014978629023474</v>
       </c>
       <c r="E37">
-        <v>1.181613334446704</v>
+        <v>0.2625807409881565</v>
       </c>
       <c r="F37">
-        <v>17.78627601265157</v>
+        <v>3.95250578058924</v>
       </c>
       <c r="G37">
-        <v>29.487327316146</v>
+        <v>6.552739403587999</v>
       </c>
       <c r="I37">
-        <v>102.4619558091695</v>
+        <v>22.76932351314877</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>38.2533106833741</v>
+        <v>8.500735707416467</v>
       </c>
       <c r="C38">
-        <v>0.05413480766121126</v>
+        <v>0.01202995725804695</v>
       </c>
       <c r="D38">
-        <v>10.22271996369201</v>
+        <v>2.271715547487115</v>
       </c>
       <c r="E38">
-        <v>1.181613334446704</v>
+        <v>0.2625807409881565</v>
       </c>
       <c r="F38">
-        <v>18.97202774682834</v>
+        <v>4.216006165961856</v>
       </c>
       <c r="G38">
-        <v>9.829109105382004</v>
+        <v>2.184246467862666</v>
       </c>
       <c r="I38">
-        <v>78.51291564138438</v>
+        <v>17.44731458697431</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1466,22 +1466,22 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>26.35228069299106</v>
+        <v>5.856062376220233</v>
       </c>
       <c r="C39">
-        <v>0.01804493588707042</v>
+        <v>0.004009985752682316</v>
       </c>
       <c r="D39">
-        <v>17.03786660615338</v>
+        <v>3.786192579145193</v>
       </c>
       <c r="F39">
-        <v>2.371503468353543</v>
+        <v>0.527000770745232</v>
       </c>
       <c r="G39">
-        <v>24.57277276345501</v>
+        <v>5.460616169656669</v>
       </c>
       <c r="I39">
-        <v>70.35246846684007</v>
+        <v>15.63388188152001</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,25 +1489,25 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>21.25183926854118</v>
+        <v>4.722630948564703</v>
       </c>
       <c r="C40">
-        <v>0.03608987177414083</v>
+        <v>0.008019971505364631</v>
       </c>
       <c r="D40">
-        <v>3.407573321230672</v>
+        <v>0.7572385158290387</v>
       </c>
       <c r="E40">
-        <v>5.908066672233522</v>
+        <v>1.312903704940783</v>
       </c>
       <c r="F40">
-        <v>10.67176560759095</v>
+        <v>2.371503468353544</v>
       </c>
       <c r="G40">
-        <v>12.2863863817275</v>
+        <v>2.730308084828335</v>
       </c>
       <c r="I40">
-        <v>53.56172112309796</v>
+        <v>11.90260469402177</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1515,25 +1515,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>56.10485566894872</v>
+        <v>12.46774570421082</v>
       </c>
       <c r="C41">
-        <v>0.03608987177414083</v>
+        <v>0.008019971505364631</v>
       </c>
       <c r="D41">
-        <v>13.63029328492269</v>
+        <v>3.028954063316155</v>
       </c>
       <c r="E41">
-        <v>3.544840003340113</v>
+        <v>0.7877422229644695</v>
       </c>
       <c r="F41">
-        <v>15.41477254429804</v>
+        <v>3.425505009844007</v>
       </c>
       <c r="G41">
-        <v>9.829109105382004</v>
+        <v>2.184246467862666</v>
       </c>
       <c r="I41">
-        <v>98.55996047866569</v>
+        <v>21.90221343970348</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1541,25 +1541,25 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>149.6129484505298</v>
+        <v>33.24732187789552</v>
       </c>
       <c r="C42">
-        <v>0.009022467943535208</v>
+        <v>0.002004992876341158</v>
       </c>
       <c r="D42">
-        <v>61.33631978215211</v>
+        <v>13.63029328492269</v>
       </c>
       <c r="E42">
-        <v>12.99774667891375</v>
+        <v>2.888388150869721</v>
       </c>
       <c r="F42">
-        <v>49.80157283542442</v>
+        <v>11.06701618564988</v>
       </c>
       <c r="G42">
-        <v>36.8591591451825</v>
+        <v>8.190924254484999</v>
       </c>
       <c r="I42">
-        <v>310.6167693601461</v>
+        <v>69.02594874669916</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>245.671261944336</v>
+        <v>54.59361376540799</v>
       </c>
       <c r="C43">
-        <v>0.05413480766121126</v>
+        <v>0.01202995725804695</v>
       </c>
       <c r="D43">
-        <v>71.55903974584415</v>
+        <v>15.90200883240981</v>
       </c>
       <c r="E43">
-        <v>44.90130670897475</v>
+        <v>9.978068157549945</v>
       </c>
       <c r="F43">
-        <v>103.1604008733792</v>
+        <v>22.92453352741759</v>
       </c>
       <c r="G43">
-        <v>68.80376373767403</v>
+        <v>15.28972527503866</v>
       </c>
       <c r="I43">
-        <v>534.1499078178692</v>
+        <v>118.699979515082</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>349.3802375748166</v>
+        <v>77.64005279440374</v>
       </c>
       <c r="C44">
-        <v>0.09022467943535206</v>
+        <v>0.02004992876341158</v>
       </c>
       <c r="D44">
-        <v>57.92874646092142</v>
+        <v>12.87305476909366</v>
       </c>
       <c r="E44">
-        <v>44.90130670897475</v>
+        <v>9.978068157549945</v>
       </c>
       <c r="F44">
-        <v>54.54457977213152</v>
+        <v>12.12101772714034</v>
       </c>
       <c r="G44">
-        <v>51.60282280325551</v>
+        <v>11.46729395627901</v>
       </c>
       <c r="H44">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I44">
-        <v>561.5319902823932</v>
+        <v>124.7848867294208</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>334.928986872209</v>
+        <v>74.42866374937972</v>
       </c>
       <c r="C45">
-        <v>0.2887189741931266</v>
+        <v>0.06415977204291705</v>
       </c>
       <c r="D45">
-        <v>85.18933303076692</v>
+        <v>18.93096289572596</v>
       </c>
       <c r="E45">
-        <v>25.9954933578275</v>
+        <v>5.776776301739442</v>
       </c>
       <c r="F45">
-        <v>91.30288353161149</v>
+        <v>20.28952967369144</v>
       </c>
       <c r="G45">
-        <v>93.376536501129</v>
+        <v>20.75034144469533</v>
       </c>
       <c r="H45">
-        <v>7.710180707144938</v>
+        <v>1.713373490476653</v>
       </c>
       <c r="I45">
-        <v>638.7921329748818</v>
+        <v>141.9538073277514</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>316.2273683158929</v>
+        <v>70.2727485146428</v>
       </c>
       <c r="C46">
-        <v>0.1804493588707041</v>
+        <v>0.04009985752682315</v>
       </c>
       <c r="D46">
-        <v>92.00447967322818</v>
+        <v>20.44543992738403</v>
       </c>
       <c r="E46">
-        <v>37.81162670229454</v>
+        <v>8.402583711621009</v>
       </c>
       <c r="F46">
-        <v>120.9466768860307</v>
+        <v>26.87703930800683</v>
       </c>
       <c r="G46">
-        <v>125.3211410936205</v>
+        <v>27.849142465249</v>
       </c>
       <c r="H46">
-        <v>6.168144565715952</v>
+        <v>1.370698792381323</v>
       </c>
       <c r="I46">
-        <v>698.6598865956535</v>
+        <v>155.2577525768118</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>244.8211883735943</v>
+        <v>54.40470852746538</v>
       </c>
       <c r="C47">
-        <v>0.2887189741931266</v>
+        <v>0.06415977204291705</v>
       </c>
       <c r="D47">
-        <v>68.1514664246135</v>
+        <v>15.14477031658077</v>
       </c>
       <c r="E47">
-        <v>31.90356003006102</v>
+        <v>7.089680006680227</v>
       </c>
       <c r="F47">
-        <v>149.4047185062733</v>
+        <v>33.20104855694961</v>
       </c>
       <c r="G47">
-        <v>135.1502501990024</v>
+        <v>30.03338893311166</v>
       </c>
       <c r="H47">
-        <v>23.13054212143483</v>
+        <v>5.140120471429959</v>
       </c>
       <c r="I47">
-        <v>652.8504446291726</v>
+        <v>145.0778765842605</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>270.3233954958438</v>
+        <v>60.07186566574303</v>
       </c>
       <c r="C48">
-        <v>0.342853781854338</v>
+        <v>0.07618972930096399</v>
       </c>
       <c r="D48">
-        <v>115.8574929218428</v>
+        <v>25.74610953818732</v>
       </c>
       <c r="E48">
-        <v>28.35872002672091</v>
+        <v>6.301937783715756</v>
       </c>
       <c r="F48">
-        <v>125.6896838227378</v>
+        <v>27.9310408494973</v>
       </c>
       <c r="G48">
-        <v>103.205645606511</v>
+        <v>22.93458791255802</v>
       </c>
       <c r="H48">
-        <v>3.084072282857976</v>
+        <v>0.6853493961906614</v>
       </c>
       <c r="I48">
-        <v>646.8618639383686</v>
+        <v>143.7470808751931</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>285.1996829838225</v>
+        <v>63.3777073297383</v>
       </c>
       <c r="C49">
-        <v>0.3518762497978731</v>
+        <v>0.07819472217730514</v>
       </c>
       <c r="D49">
-        <v>98.81962631568955</v>
+        <v>21.95991695904211</v>
       </c>
       <c r="E49">
-        <v>27.1771066922742</v>
+        <v>6.039357042727601</v>
       </c>
       <c r="F49">
-        <v>125.6896838227378</v>
+        <v>27.9310408494973</v>
       </c>
       <c r="G49">
-        <v>235.898618529168</v>
+        <v>52.42191522870399</v>
       </c>
       <c r="H49">
-        <v>1.542036141428988</v>
+        <v>0.3426746980953307</v>
       </c>
       <c r="I49">
-        <v>774.6786307349189</v>
+        <v>172.1508068299819</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_NOx.xlsx
+++ b/output/경기동로_W_가을_배출량/경기동로_W_가을_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>71.31172732332702</v>
+        <v>171.3869713600347</v>
       </c>
       <c r="C2">
-        <v>0.04611483615584663</v>
+        <v>0.2075167627013098</v>
       </c>
       <c r="D2">
-        <v>31.80401766481962</v>
+        <v>142.9533663326284</v>
       </c>
       <c r="E2">
-        <v>6.564518524703913</v>
+        <v>29.5403333611676</v>
       </c>
       <c r="F2">
-        <v>35.83605241067576</v>
+        <v>160.9411932512545</v>
       </c>
       <c r="G2">
-        <v>44.23099097421901</v>
+        <v>198.8182432282867</v>
       </c>
       <c r="H2">
-        <v>2.741397584762646</v>
+        <v>12.3362891314319</v>
       </c>
       <c r="I2">
-        <v>192.5348193186638</v>
+        <v>716.1839134275052</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>73.2952323217242</v>
+        <v>176.1540261925656</v>
       </c>
       <c r="C3">
-        <v>0.05814479341389357</v>
+        <v>0.2616515703625211</v>
       </c>
       <c r="D3">
-        <v>24.23163250652924</v>
+        <v>108.9168505391455</v>
       </c>
       <c r="E3">
-        <v>4.989034078774973</v>
+        <v>22.45065335448738</v>
       </c>
       <c r="F3">
-        <v>34.5185504838127</v>
+        <v>155.0242376170172</v>
       </c>
       <c r="G3">
-        <v>37.13218995366535</v>
+        <v>166.9091424632531</v>
       </c>
       <c r="H3">
-        <v>1.713373490476653</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I3">
-        <v>175.938157628397</v>
+        <v>637.4267424439761</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>74.9009268442362</v>
+        <v>180.0130705808045</v>
       </c>
       <c r="C4">
-        <v>0.06415977204291705</v>
+        <v>0.2887189741931266</v>
       </c>
       <c r="D4">
-        <v>17.41648586406788</v>
+        <v>78.2839863250108</v>
       </c>
       <c r="E4">
-        <v>6.827099265692071</v>
+        <v>30.7219466956143</v>
       </c>
       <c r="F4">
-        <v>32.6740477862044</v>
+        <v>146.7404997290851</v>
       </c>
       <c r="G4">
-        <v>18.56609497683267</v>
+        <v>83.45457123162655</v>
       </c>
       <c r="H4">
-        <v>1.713373490476653</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I4">
-        <v>152.1621879995528</v>
+        <v>527.2129742434793</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>81.32370493428425</v>
+        <v>195.4492481337614</v>
       </c>
       <c r="C5">
-        <v>0.05814479341389357</v>
+        <v>0.2616515703625211</v>
       </c>
       <c r="D5">
-        <v>27.26058656984538</v>
+        <v>122.5314568565387</v>
       </c>
       <c r="E5">
-        <v>8.140002970632853</v>
+        <v>36.63001336784782</v>
       </c>
       <c r="F5">
-        <v>24.24203545428067</v>
+        <v>108.8719836699663</v>
       </c>
       <c r="G5">
-        <v>12.01335557324467</v>
+        <v>54.00001667928774</v>
       </c>
       <c r="H5">
-        <v>2.741397584762646</v>
+        <v>12.3362891314319</v>
       </c>
       <c r="I5">
-        <v>155.7792278804644</v>
+        <v>530.0806594091964</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>97.56955539734678</v>
+        <v>234.4936972382991</v>
       </c>
       <c r="C6">
-        <v>0.0661647649192582</v>
+        <v>0.2977414421366619</v>
       </c>
       <c r="D6">
-        <v>24.98887102235827</v>
+        <v>112.3205021184937</v>
       </c>
       <c r="E6">
-        <v>5.776776301739442</v>
+        <v>25.9954933578275</v>
       </c>
       <c r="F6">
-        <v>19.23552813220097</v>
+        <v>86.38755225986455</v>
       </c>
       <c r="G6">
-        <v>7.098801020553666</v>
+        <v>31.90910076503367</v>
       </c>
       <c r="H6">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I6">
-        <v>155.421046035309</v>
+        <v>494.4881594645132</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>84.62954659827959</v>
+        <v>203.3943395213126</v>
       </c>
       <c r="C7">
-        <v>0.0140349501343881</v>
+        <v>0.06315727560474647</v>
       </c>
       <c r="D7">
-        <v>24.23163250652924</v>
+        <v>108.9168505391455</v>
       </c>
       <c r="E7">
-        <v>9.190325934585477</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F7">
-        <v>11.06701618564988</v>
+        <v>49.70242732759331</v>
       </c>
       <c r="G7">
-        <v>5.460616169656669</v>
+        <v>24.54546212694898</v>
       </c>
       <c r="H7">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I7">
-        <v>135.2785217410259</v>
+        <v>431.0627757790976</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>67.53362256447528</v>
+        <v>162.306866917119</v>
       </c>
       <c r="C8">
-        <v>0.0521298147848701</v>
+        <v>0.2345841665319154</v>
       </c>
       <c r="D8">
-        <v>12.87305476909366</v>
+        <v>57.86207684892105</v>
       </c>
       <c r="E8">
-        <v>7.614841488656539</v>
+        <v>34.26678669895443</v>
       </c>
       <c r="F8">
-        <v>12.64801849788556</v>
+        <v>56.80277408867808</v>
       </c>
       <c r="G8">
-        <v>6.552739403587999</v>
+        <v>29.45455455233877</v>
       </c>
       <c r="H8">
-        <v>1.370698792381323</v>
+        <v>6.168144565715952</v>
       </c>
       <c r="I8">
-        <v>108.6451053308652</v>
+        <v>347.0957878382592</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>59.3162447139727</v>
+        <v>142.5576397537773</v>
       </c>
       <c r="C9">
-        <v>0.0801997150536463</v>
+        <v>0.3608987177414082</v>
       </c>
       <c r="D9">
-        <v>15.14477031658077</v>
+        <v>68.07303158696597</v>
       </c>
       <c r="E9">
-        <v>11.55355260347888</v>
+        <v>51.99098671565499</v>
       </c>
       <c r="F9">
-        <v>7.641511175805865</v>
+        <v>34.31834267857634</v>
       </c>
       <c r="G9">
-        <v>9.283047488416337</v>
+        <v>41.72728561581327</v>
       </c>
       <c r="H9">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I9">
-        <v>103.7046754094988</v>
+        <v>342.1122573513872</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>52.23229829112565</v>
+        <v>125.5324439233102</v>
       </c>
       <c r="C10">
-        <v>0.03408487889779967</v>
+        <v>0.1533819550400985</v>
       </c>
       <c r="D10">
-        <v>11.35857773743557</v>
+        <v>51.05477369022444</v>
       </c>
       <c r="E10">
-        <v>7.089680006680227</v>
+        <v>31.90356003006102</v>
       </c>
       <c r="F10">
-        <v>7.378010790433244</v>
+        <v>33.13495155172885</v>
       </c>
       <c r="G10">
-        <v>4.914554552691002</v>
+        <v>22.09091591425408</v>
       </c>
       <c r="H10">
-        <v>2.056048188571983</v>
+        <v>9.252216848573928</v>
       </c>
       <c r="I10">
-        <v>85.06325444583547</v>
+        <v>273.1222439131926</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>29.46921711904376</v>
+        <v>70.8248146547428</v>
       </c>
       <c r="C11">
-        <v>0.01603994301072926</v>
+        <v>0.07217974354828166</v>
       </c>
       <c r="D11">
-        <v>3.786192579145193</v>
+        <v>17.01825789674149</v>
       </c>
       <c r="E11">
-        <v>4.726453337786818</v>
+        <v>21.26904002004067</v>
       </c>
       <c r="F11">
-        <v>6.587509634315397</v>
+        <v>29.5847781711865</v>
       </c>
       <c r="G11">
-        <v>2.730308084828335</v>
+        <v>12.27273106347449</v>
       </c>
       <c r="H11">
-        <v>1.713373490476653</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I11">
-        <v>49.02909418860689</v>
+        <v>158.7519822568792</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,28 +728,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>20.21286045985693</v>
+        <v>48.57855876959924</v>
       </c>
       <c r="C12">
-        <v>0.01603994301072926</v>
+        <v>0.07217974354828166</v>
       </c>
       <c r="D12">
-        <v>3.028954063316155</v>
+        <v>13.61460631739318</v>
       </c>
       <c r="E12">
-        <v>1.838065186917096</v>
+        <v>8.271293341126931</v>
       </c>
       <c r="F12">
-        <v>3.162004624471391</v>
+        <v>14.20069352216952</v>
       </c>
       <c r="G12">
-        <v>2.184246467862666</v>
+        <v>9.818184850779591</v>
       </c>
       <c r="H12">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I12">
-        <v>31.12752014162563</v>
+        <v>97.63958882747471</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -757,25 +757,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>12.46774570421082</v>
+        <v>29.96434466162195</v>
       </c>
       <c r="C13">
-        <v>0.0140349501343881</v>
+        <v>0.06315727560474647</v>
       </c>
       <c r="D13">
-        <v>0.7572385158290387</v>
+        <v>3.403651579348296</v>
       </c>
       <c r="F13">
-        <v>2.898504239098776</v>
+        <v>13.01730239532206</v>
       </c>
       <c r="G13">
-        <v>1.638184850897</v>
+        <v>7.363638638084693</v>
       </c>
       <c r="H13">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I13">
-        <v>18.11838295826535</v>
+        <v>55.35413069141072</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>10.10643022992847</v>
+        <v>24.28927938479962</v>
       </c>
       <c r="C14">
-        <v>0.01804493588707042</v>
+        <v>0.08120221149181686</v>
       </c>
       <c r="D14">
-        <v>3.786192579145193</v>
+        <v>17.01825789674149</v>
       </c>
       <c r="F14">
-        <v>3.689005395216622</v>
+        <v>16.56747577586443</v>
       </c>
       <c r="G14">
-        <v>1.638184850897</v>
+        <v>7.363638638084693</v>
       </c>
       <c r="H14">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I14">
-        <v>19.92320738726501</v>
+        <v>68.40392618984002</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,22 +809,22 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>7.556209517703527</v>
+        <v>18.16020888583147</v>
       </c>
       <c r="C15">
-        <v>0.01002496438170579</v>
+        <v>0.04511233971767603</v>
       </c>
       <c r="D15">
-        <v>1.514477031658077</v>
+        <v>6.807303158696592</v>
       </c>
       <c r="F15">
-        <v>2.371503468353544</v>
+        <v>10.65052014162714</v>
       </c>
       <c r="G15">
-        <v>3.276369701794</v>
+        <v>14.72727727616939</v>
       </c>
       <c r="I15">
-        <v>14.72858468389085</v>
+        <v>50.39042180204227</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>6.517230709019291</v>
+        <v>15.66318016402965</v>
       </c>
       <c r="C16">
-        <v>0.01002496438170579</v>
+        <v>0.04511233971767603</v>
       </c>
       <c r="D16">
-        <v>1.514477031658077</v>
+        <v>6.807303158696592</v>
       </c>
       <c r="E16">
-        <v>1.312903704940783</v>
+        <v>5.908066672233522</v>
       </c>
       <c r="F16">
-        <v>2.108003082980928</v>
+        <v>9.467129014779676</v>
       </c>
       <c r="G16">
-        <v>2.730308084828335</v>
+        <v>12.27273106347449</v>
       </c>
       <c r="I16">
-        <v>14.19294757780912</v>
+        <v>50.16352241293161</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>12.46774570421082</v>
+        <v>29.96434466162195</v>
       </c>
       <c r="C17">
-        <v>0.01202995725804695</v>
+        <v>0.05413480766121126</v>
       </c>
       <c r="D17">
-        <v>6.057908126632309</v>
+        <v>27.22921263478637</v>
       </c>
       <c r="E17">
-        <v>0.2625807409881565</v>
+        <v>1.181613334446704</v>
       </c>
       <c r="F17">
-        <v>4.216006165961856</v>
+        <v>18.93425802955935</v>
       </c>
       <c r="G17">
-        <v>2.730308084828335</v>
+        <v>12.27273106347449</v>
       </c>
       <c r="I17">
-        <v>25.74657877987952</v>
+        <v>89.63629453155008</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,28 +884,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>41.55915234736938</v>
+        <v>99.88114887207313</v>
       </c>
       <c r="C18">
-        <v>0.01804493588707042</v>
+        <v>0.08120221149181686</v>
       </c>
       <c r="D18">
-        <v>17.41648586406788</v>
+        <v>78.2839863250108</v>
       </c>
       <c r="E18">
-        <v>2.100645927905252</v>
+        <v>9.452906675573635</v>
       </c>
       <c r="F18">
-        <v>12.91151888325819</v>
+        <v>57.98616521552555</v>
       </c>
       <c r="G18">
-        <v>10.37517072234767</v>
+        <v>46.63637804120305</v>
       </c>
       <c r="H18">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I18">
-        <v>84.72369337893076</v>
+        <v>293.863823482307</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -913,28 +913,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>65.92792804196328</v>
+        <v>158.4478225288796</v>
       </c>
       <c r="C19">
-        <v>0.0140349501343881</v>
+        <v>0.06315727560474647</v>
       </c>
       <c r="D19">
-        <v>19.68820141155501</v>
+        <v>88.49494106305571</v>
       </c>
       <c r="E19">
-        <v>11.29097186249073</v>
+        <v>50.80937338120828</v>
       </c>
       <c r="F19">
-        <v>21.87053198592713</v>
+        <v>98.2214635283392</v>
       </c>
       <c r="G19">
-        <v>15.83578689200434</v>
+        <v>71.18184016815202</v>
       </c>
       <c r="H19">
-        <v>1.028024094285992</v>
+        <v>4.626108424286964</v>
       </c>
       <c r="I19">
-        <v>135.6554792383609</v>
+        <v>471.8447063695265</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -942,25 +942,25 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>80.09582088765741</v>
+        <v>192.4982141898138</v>
       </c>
       <c r="C20">
-        <v>0.03408487889779967</v>
+        <v>0.1533819550400985</v>
       </c>
       <c r="D20">
-        <v>15.90200883240981</v>
+        <v>71.47668316631419</v>
       </c>
       <c r="E20">
-        <v>9.978068157549945</v>
+        <v>44.90130670897475</v>
       </c>
       <c r="F20">
-        <v>17.12752504922004</v>
+        <v>76.9204232450849</v>
       </c>
       <c r="G20">
-        <v>12.01335557324467</v>
+        <v>54.00001667928774</v>
       </c>
       <c r="I20">
-        <v>135.1508633789797</v>
+        <v>439.9500259445155</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -968,28 +968,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>86.32969373976276</v>
+        <v>207.4803865206247</v>
       </c>
       <c r="C21">
-        <v>0.04611483615584663</v>
+        <v>0.2075167627013098</v>
       </c>
       <c r="D21">
-        <v>25.74610953818732</v>
+        <v>115.7241536978421</v>
       </c>
       <c r="E21">
-        <v>8.140002970632853</v>
+        <v>36.63001336784782</v>
       </c>
       <c r="F21">
-        <v>20.55303005906406</v>
+        <v>92.30450789410186</v>
       </c>
       <c r="G21">
-        <v>14.743663658073</v>
+        <v>66.27274774276226</v>
       </c>
       <c r="H21">
-        <v>3.084072282857976</v>
+        <v>13.87832527286089</v>
       </c>
       <c r="I21">
-        <v>158.6426870847338</v>
+        <v>532.497651258741</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -997,28 +997,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>76.03435827189176</v>
+        <v>182.7371019136793</v>
       </c>
       <c r="C22">
-        <v>0.06415977204291705</v>
+        <v>0.2887189741931266</v>
       </c>
       <c r="D22">
-        <v>33.31849469647771</v>
+        <v>149.760669491325</v>
       </c>
       <c r="E22">
-        <v>6.827099265692071</v>
+        <v>30.7219466956143</v>
       </c>
       <c r="F22">
-        <v>33.72804932769485</v>
+        <v>151.4740642364748</v>
       </c>
       <c r="G22">
-        <v>33.30975863490568</v>
+        <v>149.7273189743888</v>
       </c>
       <c r="H22">
-        <v>1.370698792381323</v>
+        <v>6.168144565715952</v>
       </c>
       <c r="I22">
-        <v>184.6526187610863</v>
+        <v>670.8779648513913</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1026,28 +1026,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>63.47215994870963</v>
+        <v>152.5457546409846</v>
       </c>
       <c r="C23">
-        <v>0.05814479341389357</v>
+        <v>0.2616515703625211</v>
       </c>
       <c r="D23">
-        <v>15.90200883240981</v>
+        <v>71.47668316631419</v>
       </c>
       <c r="E23">
-        <v>6.039357042727601</v>
+        <v>27.1771066922742</v>
       </c>
       <c r="F23">
-        <v>35.57255202530315</v>
+        <v>159.7578021244071</v>
       </c>
       <c r="G23">
-        <v>42.59280612332201</v>
+        <v>191.454604590202</v>
       </c>
       <c r="H23">
-        <v>2.741397584762646</v>
+        <v>12.3362891314319</v>
       </c>
       <c r="I23">
-        <v>166.3784263506487</v>
+        <v>615.0098919159766</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1055,28 +1055,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>59.03288685705879</v>
+        <v>141.8766319205586</v>
       </c>
       <c r="C24">
-        <v>0.05814479341389357</v>
+        <v>0.2616515703625211</v>
       </c>
       <c r="D24">
-        <v>18.17372437989692</v>
+        <v>81.68763790435912</v>
       </c>
       <c r="E24">
-        <v>5.776776301739442</v>
+        <v>25.9954933578275</v>
       </c>
       <c r="F24">
-        <v>33.99154971306747</v>
+        <v>152.6574553633222</v>
       </c>
       <c r="G24">
-        <v>50.783730377807</v>
+        <v>228.2727977806255</v>
       </c>
       <c r="H24">
-        <v>1.713373490476653</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I24">
-        <v>169.5301859134601</v>
+        <v>638.4618486042004</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1084,28 +1084,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>63.3777073297383</v>
+        <v>152.3187520299116</v>
       </c>
       <c r="C25">
-        <v>0.07819472217730514</v>
+        <v>0.3518762497978731</v>
       </c>
       <c r="D25">
-        <v>21.95991695904211</v>
+        <v>98.70589580110062</v>
       </c>
       <c r="E25">
-        <v>6.039357042727601</v>
+        <v>27.1771066922742</v>
       </c>
       <c r="F25">
-        <v>27.9310408494973</v>
+        <v>125.4394594458307</v>
       </c>
       <c r="G25">
-        <v>52.42191522870399</v>
+        <v>235.6364364187102</v>
       </c>
       <c r="H25">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I25">
-        <v>172.1508068299819</v>
+        <v>641.1715627790541</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1113,28 +1113,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>70.55610637155668</v>
+        <v>169.5709504714514</v>
       </c>
       <c r="C26">
-        <v>0.09423466518803439</v>
+        <v>0.4240559933461548</v>
       </c>
       <c r="D26">
-        <v>28.77506360150346</v>
+        <v>129.3387600152353</v>
       </c>
       <c r="E26">
-        <v>5.514195560751286</v>
+        <v>24.81388002338078</v>
       </c>
       <c r="F26">
-        <v>32.6740477862044</v>
+        <v>146.7404997290851</v>
       </c>
       <c r="G26">
-        <v>48.59948390994435</v>
+        <v>218.4546129298459</v>
       </c>
       <c r="H26">
-        <v>1.370698792381323</v>
+        <v>6.168144565715952</v>
       </c>
       <c r="I26">
-        <v>187.5838306875295</v>
+        <v>695.5109037280605</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1142,28 +1142,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>69.70603280081504</v>
+        <v>167.5279269717955</v>
       </c>
       <c r="C27">
-        <v>0.08621469368266978</v>
+        <v>0.3879661215720139</v>
       </c>
       <c r="D27">
-        <v>26.50334805401635</v>
+        <v>119.1278052771904</v>
       </c>
       <c r="E27">
-        <v>4.989034078774973</v>
+        <v>22.45065335448738</v>
       </c>
       <c r="F27">
-        <v>32.93754817157699</v>
+        <v>147.9238908559325</v>
       </c>
       <c r="G27">
-        <v>33.30975863490568</v>
+        <v>149.7273189743888</v>
       </c>
       <c r="H27">
-        <v>5.825469867620622</v>
+        <v>26.2146144042928</v>
       </c>
       <c r="I27">
-        <v>173.3574063013923</v>
+        <v>633.3601759596594</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1171,28 +1171,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>72.72851660789648</v>
+        <v>174.792010526128</v>
       </c>
       <c r="C28">
-        <v>0.08420970080632861</v>
+        <v>0.3789436536284786</v>
       </c>
       <c r="D28">
-        <v>28.77506360150346</v>
+        <v>129.3387600152353</v>
       </c>
       <c r="E28">
-        <v>6.301937783715756</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F28">
-        <v>31.88354663008653</v>
+        <v>143.1903263485426</v>
       </c>
       <c r="G28">
-        <v>40.95462127242502</v>
+        <v>184.0909659521172</v>
       </c>
       <c r="H28">
-        <v>2.398722886667315</v>
+        <v>10.79425299000291</v>
       </c>
       <c r="I28">
-        <v>183.1266184831009</v>
+        <v>670.9439795123753</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1200,28 +1200,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>68.00588565933174</v>
+        <v>163.4418799724835</v>
       </c>
       <c r="C29">
-        <v>0.07217974354828169</v>
+        <v>0.3248088459672674</v>
       </c>
       <c r="D29">
-        <v>25.74610953818732</v>
+        <v>115.7241536978421</v>
       </c>
       <c r="E29">
-        <v>7.089680006680227</v>
+        <v>31.90356003006102</v>
       </c>
       <c r="F29">
-        <v>21.87053198592713</v>
+        <v>98.2214635283392</v>
       </c>
       <c r="G29">
-        <v>33.30975863490568</v>
+        <v>149.7273189743888</v>
       </c>
       <c r="H29">
-        <v>1.713373490476653</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I29">
-        <v>157.807519059057</v>
+        <v>567.0533657562269</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1229,28 +1229,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>77.35669493748986</v>
+        <v>185.9151384686998</v>
       </c>
       <c r="C30">
-        <v>0.03207988602145852</v>
+        <v>0.1443594870965633</v>
       </c>
       <c r="D30">
-        <v>29.5323021173325</v>
+        <v>132.7424115945836</v>
       </c>
       <c r="E30">
-        <v>4.989034078774973</v>
+        <v>22.45065335448738</v>
       </c>
       <c r="F30">
-        <v>21.08003082980927</v>
+        <v>94.67129014779677</v>
       </c>
       <c r="G30">
-        <v>31.67157378400868</v>
+        <v>142.363680336304</v>
       </c>
       <c r="H30">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I30">
-        <v>165.3470650296274</v>
+        <v>581.371605671826</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1258,25 +1258,25 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>75.37318993909273</v>
+        <v>181.1480836361692</v>
       </c>
       <c r="C31">
-        <v>0.004009985752682316</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D31">
-        <v>12.87305476909366</v>
+        <v>57.86207684892105</v>
       </c>
       <c r="E31">
-        <v>9.452906675573637</v>
+        <v>42.53808004008135</v>
       </c>
       <c r="F31">
-        <v>11.06701618564988</v>
+        <v>49.70242732759331</v>
       </c>
       <c r="G31">
-        <v>24.57277276345501</v>
+        <v>110.4545795712704</v>
       </c>
       <c r="I31">
-        <v>133.3429503186176</v>
+        <v>441.7232923599223</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1284,25 +1284,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>67.06135946961878</v>
+        <v>161.1718538617546</v>
       </c>
       <c r="C32">
-        <v>0.01804493588707042</v>
+        <v>0.08120221149181686</v>
       </c>
       <c r="D32">
-        <v>16.65924734823885</v>
+        <v>74.88033474566251</v>
       </c>
       <c r="E32">
-        <v>11.02839112150257</v>
+        <v>49.62776004676156</v>
       </c>
       <c r="F32">
-        <v>11.5940169563951</v>
+        <v>52.06920958128823</v>
       </c>
       <c r="G32">
-        <v>19.11215659379834</v>
+        <v>85.90911744432142</v>
       </c>
       <c r="I32">
-        <v>125.4732164254407</v>
+        <v>423.7394778912802</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1310,25 +1310,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>53.46018233775242</v>
+        <v>128.4834778672578</v>
       </c>
       <c r="C33">
-        <v>0.03207988602145852</v>
+        <v>0.1443594870965633</v>
       </c>
       <c r="D33">
-        <v>17.41648586406788</v>
+        <v>78.2839863250108</v>
       </c>
       <c r="E33">
-        <v>9.190325934585477</v>
+        <v>41.35646670563466</v>
       </c>
       <c r="F33">
-        <v>6.587509634315397</v>
+        <v>29.5847781711865</v>
       </c>
       <c r="G33">
-        <v>8.190924254484999</v>
+        <v>36.81819319042346</v>
       </c>
       <c r="I33">
-        <v>94.87750791122762</v>
+        <v>314.6712617466098</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,25 +1336,25 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>42.12586806119715</v>
+        <v>101.2431645385105</v>
       </c>
       <c r="C34">
-        <v>0.01804493588707042</v>
+        <v>0.08120221149181686</v>
       </c>
       <c r="D34">
-        <v>10.60133922160654</v>
+        <v>47.65112211087616</v>
       </c>
       <c r="E34">
-        <v>7.614841488656539</v>
+        <v>34.26678669895443</v>
       </c>
       <c r="F34">
-        <v>3.425505009844007</v>
+        <v>15.38408464901698</v>
       </c>
       <c r="G34">
-        <v>7.644862637519332</v>
+        <v>34.36364697772858</v>
       </c>
       <c r="I34">
-        <v>71.43046135471064</v>
+        <v>232.9900071865785</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1362,25 +1362,25 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>27.67461735858919</v>
+        <v>66.51176504435782</v>
       </c>
       <c r="C35">
-        <v>0.0140349501343881</v>
+        <v>0.06315727560474647</v>
       </c>
       <c r="D35">
-        <v>5.300669610803271</v>
+        <v>23.82556105543808</v>
       </c>
       <c r="E35">
-        <v>5.25161481976313</v>
+        <v>23.63226668893409</v>
       </c>
       <c r="F35">
-        <v>5.533508092824938</v>
+        <v>24.85121366379665</v>
       </c>
       <c r="G35">
-        <v>11.46729395627901</v>
+        <v>51.54547046659284</v>
       </c>
       <c r="I35">
-        <v>55.24173878839392</v>
+        <v>190.4294341947242</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,28 +1388,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>19.83504998397175</v>
+        <v>47.67054832530764</v>
       </c>
       <c r="C36">
-        <v>0.008019971505364631</v>
+        <v>0.03608987177414083</v>
       </c>
       <c r="D36">
-        <v>4.543431094974229</v>
+        <v>20.42190947608978</v>
       </c>
       <c r="E36">
-        <v>2.100645927905252</v>
+        <v>9.452906675573635</v>
       </c>
       <c r="F36">
-        <v>3.95250578058924</v>
+        <v>17.7508669027119</v>
       </c>
       <c r="G36">
-        <v>6.006677786622334</v>
+        <v>27.00000833964387</v>
       </c>
       <c r="H36">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I36">
-        <v>36.7890052436635</v>
+        <v>123.87436573253</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1417,22 +1417,22 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>11.99548260935435</v>
+        <v>28.82933160625748</v>
       </c>
       <c r="C37">
-        <v>0.006014978629023474</v>
+        <v>0.02706740383060563</v>
       </c>
       <c r="E37">
-        <v>0.2625807409881565</v>
+        <v>1.181613334446704</v>
       </c>
       <c r="F37">
-        <v>3.95250578058924</v>
+        <v>17.7508669027119</v>
       </c>
       <c r="G37">
-        <v>6.552739403587999</v>
+        <v>29.45455455233877</v>
       </c>
       <c r="I37">
-        <v>22.76932351314877</v>
+        <v>77.24343379958546</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1440,25 +1440,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>8.500735707416467</v>
+        <v>20.43023499656044</v>
       </c>
       <c r="C38">
-        <v>0.01202995725804695</v>
+        <v>0.05413480766121126</v>
       </c>
       <c r="D38">
-        <v>2.271715547487115</v>
+        <v>10.21095473804489</v>
       </c>
       <c r="E38">
-        <v>0.2625807409881565</v>
+        <v>1.181613334446704</v>
       </c>
       <c r="F38">
-        <v>4.216006165961856</v>
+        <v>18.93425802955935</v>
       </c>
       <c r="G38">
-        <v>2.184246467862666</v>
+        <v>9.818184850779591</v>
       </c>
       <c r="I38">
-        <v>17.44731458697431</v>
+        <v>60.62938075705219</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1466,22 +1466,22 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>5.856062376220233</v>
+        <v>14.0741618865194</v>
       </c>
       <c r="C39">
-        <v>0.004009985752682316</v>
+        <v>0.01804493588707042</v>
       </c>
       <c r="D39">
-        <v>3.786192579145193</v>
+        <v>17.01825789674149</v>
       </c>
       <c r="F39">
-        <v>0.527000770745232</v>
+        <v>2.366782253694919</v>
       </c>
       <c r="G39">
-        <v>5.460616169656669</v>
+        <v>24.54546212694898</v>
       </c>
       <c r="I39">
-        <v>15.63388188152001</v>
+        <v>58.02270909979187</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,25 +1489,25 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>4.722630948564703</v>
+        <v>11.35013055364468</v>
       </c>
       <c r="C40">
-        <v>0.008019971505364631</v>
+        <v>0.03608987177414083</v>
       </c>
       <c r="D40">
-        <v>0.7572385158290387</v>
+        <v>3.403651579348296</v>
       </c>
       <c r="E40">
-        <v>1.312903704940783</v>
+        <v>5.908066672233522</v>
       </c>
       <c r="F40">
-        <v>2.371503468353544</v>
+        <v>10.65052014162714</v>
       </c>
       <c r="G40">
-        <v>2.730308084828335</v>
+        <v>12.27273106347449</v>
       </c>
       <c r="I40">
-        <v>11.90260469402177</v>
+        <v>43.62118988210227</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1515,25 +1515,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>12.46774570421082</v>
+        <v>29.96434466162195</v>
       </c>
       <c r="C41">
-        <v>0.008019971505364631</v>
+        <v>0.03608987177414083</v>
       </c>
       <c r="D41">
-        <v>3.028954063316155</v>
+        <v>13.61460631739318</v>
       </c>
       <c r="E41">
-        <v>0.7877422229644695</v>
+        <v>3.544840003340113</v>
       </c>
       <c r="F41">
-        <v>3.425505009844007</v>
+        <v>15.38408464901698</v>
       </c>
       <c r="G41">
-        <v>2.184246467862666</v>
+        <v>9.818184850779591</v>
       </c>
       <c r="I41">
-        <v>21.90221343970348</v>
+        <v>72.36215035392595</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1541,25 +1541,25 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>33.24732187789552</v>
+        <v>79.90491909765848</v>
       </c>
       <c r="C42">
-        <v>0.002004992876341158</v>
+        <v>0.009022467943535208</v>
       </c>
       <c r="D42">
-        <v>13.63029328492269</v>
+        <v>61.26572842826933</v>
       </c>
       <c r="E42">
-        <v>2.888388150869721</v>
+        <v>12.99774667891375</v>
       </c>
       <c r="F42">
-        <v>11.06701618564988</v>
+        <v>49.70242732759331</v>
       </c>
       <c r="G42">
-        <v>8.190924254484999</v>
+        <v>36.81819319042346</v>
       </c>
       <c r="I42">
-        <v>69.02594874669916</v>
+        <v>240.6980371908019</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>54.59361376540799</v>
+        <v>131.2075092001325</v>
       </c>
       <c r="C43">
-        <v>0.01202995725804695</v>
+        <v>0.05413480766121126</v>
       </c>
       <c r="D43">
-        <v>15.90200883240981</v>
+        <v>71.47668316631419</v>
       </c>
       <c r="E43">
-        <v>9.978068157549945</v>
+        <v>44.90130670897475</v>
       </c>
       <c r="F43">
-        <v>22.92453352741759</v>
+        <v>102.955028035729</v>
       </c>
       <c r="G43">
-        <v>15.28972527503866</v>
+        <v>68.72729395545716</v>
       </c>
       <c r="I43">
-        <v>118.699979515082</v>
+        <v>419.3219558742688</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>77.64005279440374</v>
+        <v>186.5961463019185</v>
       </c>
       <c r="C44">
-        <v>0.02004992876341158</v>
+        <v>0.09022467943535206</v>
       </c>
       <c r="D44">
-        <v>12.87305476909366</v>
+        <v>57.86207684892105</v>
       </c>
       <c r="E44">
-        <v>9.978068157549945</v>
+        <v>44.90130670897475</v>
       </c>
       <c r="F44">
-        <v>12.12101772714034</v>
+        <v>54.43599183498315</v>
       </c>
       <c r="G44">
-        <v>11.46729395627901</v>
+        <v>51.54547046659284</v>
       </c>
       <c r="H44">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I44">
-        <v>124.7848867294208</v>
+        <v>398.5152891236836</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>74.42866374937972</v>
+        <v>178.8780575254401</v>
       </c>
       <c r="C45">
-        <v>0.06415977204291705</v>
+        <v>0.2887189741931266</v>
       </c>
       <c r="D45">
-        <v>18.93096289572596</v>
+        <v>85.09128948370743</v>
       </c>
       <c r="E45">
-        <v>5.776776301739442</v>
+        <v>25.9954933578275</v>
       </c>
       <c r="F45">
-        <v>20.28952967369144</v>
+        <v>91.12111676725442</v>
       </c>
       <c r="G45">
-        <v>20.75034144469533</v>
+        <v>93.2727560824061</v>
       </c>
       <c r="H45">
-        <v>1.713373490476653</v>
+        <v>7.710180707144938</v>
       </c>
       <c r="I45">
-        <v>141.9538073277514</v>
+        <v>482.3576128979736</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>70.2727485146428</v>
+        <v>168.8899426382328</v>
       </c>
       <c r="C46">
-        <v>0.04009985752682315</v>
+        <v>0.1804493588707041</v>
       </c>
       <c r="D46">
-        <v>20.44543992738403</v>
+        <v>91.89859264240404</v>
       </c>
       <c r="E46">
-        <v>8.402583711621009</v>
+        <v>37.81162670229454</v>
       </c>
       <c r="F46">
-        <v>26.87703930800683</v>
+        <v>120.7058949384409</v>
       </c>
       <c r="G46">
-        <v>27.849142465249</v>
+        <v>125.1818568474398</v>
       </c>
       <c r="H46">
-        <v>1.370698792381323</v>
+        <v>6.168144565715952</v>
       </c>
       <c r="I46">
-        <v>155.2577525768118</v>
+        <v>550.8365076933987</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>54.40470852746538</v>
+        <v>130.7535039779867</v>
       </c>
       <c r="C47">
-        <v>0.06415977204291705</v>
+        <v>0.2887189741931266</v>
       </c>
       <c r="D47">
-        <v>15.14477031658077</v>
+        <v>68.07303158696597</v>
       </c>
       <c r="E47">
-        <v>7.089680006680227</v>
+        <v>31.90356003006102</v>
       </c>
       <c r="F47">
-        <v>33.20104855694961</v>
+        <v>149.1072819827799</v>
       </c>
       <c r="G47">
-        <v>30.03338893311166</v>
+        <v>135.0000416982194</v>
       </c>
       <c r="H47">
-        <v>5.140120471429959</v>
+        <v>23.13054212143483</v>
       </c>
       <c r="I47">
-        <v>145.0778765842605</v>
+        <v>538.256680371641</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>60.07186566574303</v>
+        <v>144.3736606423604</v>
       </c>
       <c r="C48">
-        <v>0.07618972930096399</v>
+        <v>0.342853781854338</v>
       </c>
       <c r="D48">
-        <v>25.74610953818732</v>
+        <v>115.7241536978421</v>
       </c>
       <c r="E48">
-        <v>6.301937783715756</v>
+        <v>28.35872002672091</v>
       </c>
       <c r="F48">
-        <v>27.9310408494973</v>
+        <v>125.4394594458307</v>
       </c>
       <c r="G48">
-        <v>22.93458791255802</v>
+        <v>103.0909409331857</v>
       </c>
       <c r="H48">
-        <v>0.6853493961906614</v>
+        <v>3.084072282857976</v>
       </c>
       <c r="I48">
-        <v>143.7470808751931</v>
+        <v>520.4138608106522</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>63.3777073297383</v>
+        <v>152.3187520299116</v>
       </c>
       <c r="C49">
-        <v>0.07819472217730514</v>
+        <v>0.3518762497978731</v>
       </c>
       <c r="D49">
-        <v>21.95991695904211</v>
+        <v>98.70589580110062</v>
       </c>
       <c r="E49">
-        <v>6.039357042727601</v>
+        <v>27.1771066922742</v>
       </c>
       <c r="F49">
-        <v>27.9310408494973</v>
+        <v>125.4394594458307</v>
       </c>
       <c r="G49">
-        <v>52.42191522870399</v>
+        <v>235.6364364187102</v>
       </c>
       <c r="H49">
-        <v>0.3426746980953307</v>
+        <v>1.542036141428988</v>
       </c>
       <c r="I49">
-        <v>172.1508068299819</v>
+        <v>641.1715627790541</v>
       </c>
     </row>
   </sheetData>
